--- a/Timesheets/2018-03-10.xlsx
+++ b/Timesheets/2018-03-10.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intern\Documents\GitHub\UV-Sticker\Timesheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carl\Documents\GitHub\UV-Sticker\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E343A245-F29B-4984-BC01-EF59CE2B85E0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
   </bookViews>
@@ -16,6 +15,7 @@
     <sheet name="timesheet.hourly" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -248,8 +248,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="m/d"/>
-    <numFmt numFmtId="175" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1407,16 +1407,16 @@
     <xf numFmtId="2" fontId="11" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1444,7 +1444,7 @@
     </xf>
     <xf numFmtId="4" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1471,6 +1471,82 @@
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1485,12 +1561,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1527,76 +1597,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1688,13 +1688,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2081,7 +2081,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2125,7 +2125,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2152,8 +2152,8 @@
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.75"/>
@@ -2171,49 +2171,49 @@
       <c r="A2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
     </row>
     <row r="3" spans="1:18" ht="12.95" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
     </row>
     <row r="4" spans="1:18" ht="0.95" hidden="1" customHeight="1">
       <c r="B4" s="8"/>
@@ -2254,35 +2254,35 @@
       <c r="R5" s="15"/>
     </row>
     <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="155"/>
+      <c r="C6" s="130"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="152" t="s">
+      <c r="G6" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="154"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="129"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="116" t="s">
+      <c r="M6" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="117"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="142"/>
+      <c r="Q6" s="142"/>
+      <c r="R6" s="142"/>
     </row>
     <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="156"/>
       <c r="D7" s="28"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
@@ -2292,14 +2292,14 @@
       <c r="J7" s="14"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="135" t="s">
+      <c r="M7" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="136"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
     </row>
     <row r="8" spans="1:18" ht="11.1" customHeight="1">
       <c r="B8" s="11"/>
@@ -2342,10 +2342,10 @@
       <c r="R9" s="38"/>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="B10" s="150" t="s">
+      <c r="B10" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="142" t="s">
+      <c r="C10" s="117" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="94" t="s">
@@ -2393,8 +2393,8 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="B11" s="151"/>
-      <c r="C11" s="143"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="93">
         <v>41694</v>
       </c>
@@ -2442,7 +2442,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="33" customHeight="1">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="140" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="53" t="s">
@@ -2450,25 +2450,45 @@
       </c>
       <c r="D12" s="54"/>
       <c r="E12" s="110"/>
-      <c r="F12" s="55"/>
+      <c r="F12" s="55">
+        <v>1</v>
+      </c>
       <c r="G12" s="55"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
+      <c r="H12" s="110">
+        <v>2</v>
+      </c>
+      <c r="I12" s="110">
+        <v>5</v>
+      </c>
+      <c r="J12" s="56">
+        <v>6.75</v>
+      </c>
+      <c r="K12" s="54">
+        <v>5.5</v>
+      </c>
+      <c r="L12" s="55">
+        <v>1.25</v>
+      </c>
+      <c r="M12" s="55">
+        <v>2</v>
+      </c>
       <c r="N12" s="55"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="56"/>
+      <c r="O12" s="110">
+        <v>6.5</v>
+      </c>
+      <c r="P12" s="110">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="56">
+        <v>5</v>
+      </c>
       <c r="R12" s="80">
         <f t="shared" ref="R12:R21" si="0">SUM(D12:Q12)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="33" customHeight="1" thickBot="1">
-      <c r="B13" s="138"/>
+      <c r="B13" s="137"/>
       <c r="C13" s="57" t="s">
         <v>32</v>
       </c>
@@ -2492,7 +2512,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="33" customHeight="1">
-      <c r="B14" s="137"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="61" t="s">
         <v>17</v>
       </c>
@@ -2516,7 +2536,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="33" customHeight="1" thickBot="1">
-      <c r="B15" s="138"/>
+      <c r="B15" s="137"/>
       <c r="C15" s="57" t="s">
         <v>32</v>
       </c>
@@ -2540,7 +2560,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="33" customHeight="1">
-      <c r="B16" s="137"/>
+      <c r="B16" s="136"/>
       <c r="C16" s="61" t="s">
         <v>17</v>
       </c>
@@ -2564,7 +2584,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="33" customHeight="1" thickBot="1">
-      <c r="B17" s="138"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="57" t="s">
         <v>32</v>
       </c>
@@ -2588,7 +2608,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="33" customHeight="1">
-      <c r="B18" s="137"/>
+      <c r="B18" s="136"/>
       <c r="C18" s="61" t="s">
         <v>17</v>
       </c>
@@ -2612,7 +2632,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="33" customHeight="1" thickBot="1">
-      <c r="B19" s="138"/>
+      <c r="B19" s="137"/>
       <c r="C19" s="57" t="s">
         <v>33</v>
       </c>
@@ -2636,7 +2656,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" ht="33" customHeight="1">
-      <c r="B20" s="148"/>
+      <c r="B20" s="123"/>
       <c r="C20" s="61" t="s">
         <v>17</v>
       </c>
@@ -2660,7 +2680,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="33" customHeight="1" thickBot="1">
-      <c r="B21" s="149"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="65" t="s">
         <v>32</v>
       </c>
@@ -2684,10 +2704,10 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="35.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B22" s="126" t="s">
+      <c r="B22" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="127"/>
+      <c r="C22" s="150"/>
       <c r="D22" s="88">
         <f t="shared" ref="D22:Q22" si="1">SUM(D12:D21)</f>
         <v>0</v>
@@ -2698,7 +2718,7 @@
       </c>
       <c r="F22" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="89">
         <f t="shared" si="1"/>
@@ -2706,27 +2726,27 @@
       </c>
       <c r="H22" s="113">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="113">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" s="90">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="K22" s="91">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L22" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M22" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" s="89">
         <f t="shared" si="1"/>
@@ -2734,26 +2754,26 @@
       </c>
       <c r="O22" s="113">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="P22" s="113">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="92">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R22" s="83">
         <f>SUM(D22:Q22)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:19" ht="27" customHeight="1">
-      <c r="B23" s="144" t="s">
+      <c r="B23" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="145"/>
+      <c r="C23" s="120"/>
       <c r="D23" s="68"/>
       <c r="E23" s="114"/>
       <c r="F23" s="69"/>
@@ -2774,10 +2794,10 @@
       </c>
     </row>
     <row r="24" spans="2:19" ht="27" customHeight="1">
-      <c r="B24" s="130" t="s">
+      <c r="B24" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="131"/>
+      <c r="C24" s="154"/>
       <c r="D24" s="68"/>
       <c r="E24" s="114"/>
       <c r="F24" s="69"/>
@@ -2798,10 +2818,10 @@
       </c>
     </row>
     <row r="25" spans="2:19" ht="27" customHeight="1">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="131"/>
+      <c r="C25" s="154"/>
       <c r="D25" s="68"/>
       <c r="E25" s="114"/>
       <c r="F25" s="69"/>
@@ -2822,10 +2842,10 @@
       </c>
     </row>
     <row r="26" spans="2:19" ht="29.1" customHeight="1" thickBot="1">
-      <c r="B26" s="146" t="s">
+      <c r="B26" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="147"/>
+      <c r="C26" s="122"/>
       <c r="D26" s="72"/>
       <c r="E26" s="115"/>
       <c r="F26" s="73"/>
@@ -2851,17 +2871,17 @@
       <c r="R27" s="5"/>
     </row>
     <row r="28" spans="2:19" ht="15.95" customHeight="1">
-      <c r="B28" s="128" t="s">
+      <c r="B28" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="129"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
       <c r="K28" s="30"/>
       <c r="R28" s="3"/>
     </row>
@@ -2886,7 +2906,7 @@
       <c r="E31" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="156">
+      <c r="F31" s="116">
         <v>41707</v>
       </c>
       <c r="G31" s="18"/>
@@ -2909,10 +2929,10 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="I32" s="118" t="s">
+      <c r="I32" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="J32" s="119"/>
+      <c r="J32" s="144"/>
       <c r="K32" s="100" t="s">
         <v>34</v>
       </c>
@@ -2944,8 +2964,8 @@
       <c r="C33" s="50"/>
       <c r="G33" s="17"/>
       <c r="H33"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="140"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="139"/>
       <c r="K33" s="40"/>
       <c r="L33" s="41"/>
       <c r="M33" s="42"/>
@@ -2968,8 +2988,8 @@
       <c r="F34" s="6"/>
       <c r="G34" s="18"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="121"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="133"/>
       <c r="K34" s="44"/>
       <c r="L34" s="41"/>
       <c r="M34" s="42"/>
@@ -2990,8 +3010,8 @@
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="121"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="133"/>
       <c r="K35" s="44"/>
       <c r="L35" s="39"/>
       <c r="M35" s="39"/>
@@ -3012,8 +3032,8 @@
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="121"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="133"/>
       <c r="K36" s="39"/>
       <c r="L36" s="39"/>
       <c r="M36" s="39"/>
@@ -3033,8 +3053,8 @@
       <c r="F37" s="13"/>
       <c r="G37"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="121"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="133"/>
       <c r="K37" s="39"/>
       <c r="L37" s="39"/>
       <c r="M37" s="39"/>
@@ -3050,8 +3070,8 @@
       <c r="F38" s="17"/>
       <c r="G38" s="13"/>
       <c r="H38" s="17"/>
-      <c r="I38" s="134"/>
-      <c r="J38" s="134"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
@@ -3088,11 +3108,13 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:R3"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="G6:K6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="I38:J38"/>
@@ -3108,13 +3130,11 @@
     <mergeCell ref="M6:R6"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I36:J36"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B3:R3"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
